--- a/data/Provincias.xlsx
+++ b/data/Provincias.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e223505c9e30941/Documents/10. TFI/0. Labs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D30413A-10C5-4E9C-9B1E-E49025B81673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{3D30413A-10C5-4E9C-9B1E-E49025B81673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58DB65FB-F5B6-4ED9-98B2-432492C5A8FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,12 +235,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,300 +569,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="23.109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:F26"/>
+  <autoFilter ref="D1:F26" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:F26">
+      <sortCondition descending="1" ref="F1:F26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
